--- a/CS335/GitHub Info sans duplicates.xlsx
+++ b/CS335/GitHub Info sans duplicates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\staffcard\CS335\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\staffcard\CS335\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB0E369-6397-437A-9A4A-D6D2BD0DCB4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F31FBC-04DF-4C30-B853-154198E04C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="756" yWindow="756" windowWidth="14400" windowHeight="7812" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="1187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3809" uniqueCount="1188">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3588,6 +3588,9 @@
   </si>
   <si>
     <t>BSc. BIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL JOHN </t>
   </si>
 </sst>
 </file>
@@ -3975,14 +3978,14 @@
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" customWidth="1"/>
-    <col min="11" max="11" width="9.796875" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4096,7 +4099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -4324,7 +4327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -4362,7 +4365,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>90</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -4438,7 +4441,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4590,7 +4593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -4628,7 +4631,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -4742,7 +4745,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>171</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>187</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>221</v>
       </c>
@@ -5008,7 +5011,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>229</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -5084,7 +5087,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>245</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>253</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>261</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>269</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>277</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>286</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>295</v>
       </c>
@@ -5350,7 +5353,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>312</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>320</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>328</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>337</v>
       </c>
@@ -5540,7 +5543,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>345</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>353</v>
       </c>
@@ -5616,7 +5619,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>361</v>
       </c>
@@ -5654,7 +5657,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>369</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>377</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>393</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>401</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>409</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>417</v>
       </c>
@@ -5920,7 +5923,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>425</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>433</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>441</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>449</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>457</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>465</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>473</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>482</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>489</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>497</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>506</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>514</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>522</v>
       </c>
@@ -6414,7 +6417,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>531</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>539</v>
       </c>
@@ -6490,7 +6493,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>547</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>555</v>
       </c>
@@ -6566,7 +6569,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>563</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>572</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>580</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>588</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>596</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>604</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>612</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>620</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>629</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>636</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>643</v>
       </c>
@@ -6984,7 +6987,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>651</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>659</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>667</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>675</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>684</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>691</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>699</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>707</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>715</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>723</v>
       </c>
@@ -7364,7 +7367,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>731</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>739</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>747</v>
       </c>
@@ -7478,7 +7481,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>755</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>763</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>771</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>773</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>781</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>789</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>797</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>805</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>813</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>821</v>
       </c>
@@ -7858,7 +7861,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>829</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>836</v>
       </c>
@@ -7933,7 +7936,7 @@
       <c r="M104" s="8"/>
       <c r="P104" s="1"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>843</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>851</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>44518.9544328704</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>866</v>
       </c>
@@ -8085,7 +8088,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>874</v>
       </c>
@@ -8123,7 +8126,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>883</v>
       </c>
@@ -8161,7 +8164,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>891</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>893</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>901</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>903</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>911</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>919</v>
       </c>
@@ -8386,7 +8389,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>927</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>934</v>
       </c>
@@ -8462,7 +8465,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>942</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>950</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>957</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>965</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>973</v>
       </c>
@@ -8649,7 +8652,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>483</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>977</v>
       </c>
@@ -8710,7 +8713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>523</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>982</v>
       </c>
@@ -8789,16 +8792,16 @@
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>990</v>
       </c>
@@ -8830,7 +8833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>997</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1000</v>
       </c>
@@ -8894,7 +8897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -8926,7 +8929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1001</v>
       </c>
@@ -8958,7 +8961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1003</v>
       </c>
@@ -8990,7 +8993,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1004</v>
       </c>
@@ -9022,7 +9025,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1006</v>
       </c>
@@ -9054,7 +9057,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1007</v>
       </c>
@@ -9086,7 +9089,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1008</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1009</v>
       </c>
@@ -9150,7 +9153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1010</v>
       </c>
@@ -9182,7 +9185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1011</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1012</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1013</v>
       </c>
@@ -9278,7 +9281,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1014</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1015</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1016</v>
       </c>
@@ -9374,7 +9377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1017</v>
       </c>
@@ -9406,7 +9409,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1018</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1019</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1020</v>
       </c>
@@ -9502,7 +9505,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1021</v>
       </c>
@@ -9534,7 +9537,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1023</v>
       </c>
@@ -9566,7 +9569,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1024</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1025</v>
       </c>
@@ -9630,7 +9633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1026</v>
       </c>
@@ -9662,7 +9665,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1027</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1028</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1029</v>
       </c>
@@ -9758,7 +9761,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1030</v>
       </c>
@@ -9790,7 +9793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1031</v>
       </c>
@@ -9822,7 +9825,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1033</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1034</v>
       </c>
@@ -9886,7 +9889,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1035</v>
       </c>
@@ -9918,7 +9921,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1037</v>
       </c>
@@ -9950,7 +9953,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1038</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1039</v>
       </c>
@@ -10014,7 +10017,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1040</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1041</v>
       </c>
@@ -10078,7 +10081,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1042</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1043</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1044</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1045</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1046</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1047</v>
       </c>
@@ -10270,7 +10273,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1048</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1049</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1050</v>
       </c>
@@ -10366,7 +10369,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1051</v>
       </c>
@@ -10398,7 +10401,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1053</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1054</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1055</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1056</v>
       </c>
@@ -10526,7 +10529,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1057</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1058</v>
       </c>
@@ -10590,7 +10593,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1059</v>
       </c>
@@ -10622,7 +10625,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1061</v>
       </c>
@@ -10654,7 +10657,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1062</v>
       </c>
@@ -10686,7 +10689,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1063</v>
       </c>
@@ -10718,7 +10721,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1064</v>
       </c>
@@ -10750,7 +10753,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1065</v>
       </c>
@@ -10782,7 +10785,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1066</v>
       </c>
@@ -10814,7 +10817,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1067</v>
       </c>
@@ -10846,7 +10849,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1068</v>
       </c>
@@ -10878,7 +10881,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1069</v>
       </c>
@@ -10910,7 +10913,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1070</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1071</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1072</v>
       </c>
@@ -11006,7 +11009,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1073</v>
       </c>
@@ -11038,7 +11041,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1074</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1075</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1076</v>
       </c>
@@ -11134,7 +11137,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1077</v>
       </c>
@@ -11166,7 +11169,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1078</v>
       </c>
@@ -11198,7 +11201,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1079</v>
       </c>
@@ -11230,7 +11233,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1080</v>
       </c>
@@ -11262,7 +11265,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1082</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1083</v>
       </c>
@@ -11326,7 +11329,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1084</v>
       </c>
@@ -11358,7 +11361,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1085</v>
       </c>
@@ -11390,7 +11393,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1086</v>
       </c>
@@ -11422,7 +11425,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1087</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1088</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1089</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1090</v>
       </c>
@@ -11550,7 +11553,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1091</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1092</v>
       </c>
@@ -11614,7 +11617,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1093</v>
       </c>
@@ -11646,7 +11649,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1094</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1095</v>
       </c>
@@ -11710,7 +11713,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1096</v>
       </c>
@@ -11742,7 +11745,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1097</v>
       </c>
@@ -11774,7 +11777,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1098</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1099</v>
       </c>
@@ -11838,7 +11841,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1100</v>
       </c>
@@ -11870,7 +11873,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1101</v>
       </c>
@@ -11902,7 +11905,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1102</v>
       </c>
@@ -11934,7 +11937,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1103</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1104</v>
       </c>
@@ -11998,7 +12001,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1106</v>
       </c>
@@ -12030,7 +12033,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1107</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1108</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1112</v>
       </c>
@@ -12120,7 +12123,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1114</v>
       </c>
@@ -12152,7 +12155,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1115</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1117</v>
       </c>
@@ -12216,7 +12219,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1118</v>
       </c>
@@ -12248,7 +12251,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1119</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1120</v>
       </c>
@@ -12312,7 +12315,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1121</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1122</v>
       </c>
@@ -12373,7 +12376,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1125</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1133</v>
       </c>
@@ -12437,7 +12440,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1134</v>
       </c>
@@ -12469,7 +12472,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -12514,22 +12517,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" customWidth="1"/>
-    <col min="7" max="7" width="29.19921875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.09765625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="29.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>990</v>
       </c>
@@ -12561,7 +12564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>997</v>
       </c>
@@ -12593,7 +12596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1000</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1001</v>
       </c>
@@ -12689,7 +12692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1003</v>
       </c>
@@ -12721,7 +12724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1004</v>
       </c>
@@ -12753,7 +12756,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1006</v>
       </c>
@@ -12785,7 +12788,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1007</v>
       </c>
@@ -12817,7 +12820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1008</v>
       </c>
@@ -12849,7 +12852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1009</v>
       </c>
@@ -12881,7 +12884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1010</v>
       </c>
@@ -12913,7 +12916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1011</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1012</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1013</v>
       </c>
@@ -13009,7 +13012,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1014</v>
       </c>
@@ -13041,7 +13044,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1015</v>
       </c>
@@ -13073,7 +13076,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1016</v>
       </c>
@@ -13105,7 +13108,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1017</v>
       </c>
@@ -13137,7 +13140,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1018</v>
       </c>
@@ -13169,7 +13172,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1019</v>
       </c>
@@ -13201,7 +13204,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1020</v>
       </c>
@@ -13233,7 +13236,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1021</v>
       </c>
@@ -13265,7 +13268,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1023</v>
       </c>
@@ -13297,7 +13300,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1024</v>
       </c>
@@ -13329,7 +13332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1025</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1026</v>
       </c>
@@ -13393,7 +13396,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1027</v>
       </c>
@@ -13425,7 +13428,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1028</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1029</v>
       </c>
@@ -13489,7 +13492,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1030</v>
       </c>
@@ -13521,7 +13524,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1031</v>
       </c>
@@ -13553,7 +13556,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1033</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1034</v>
       </c>
@@ -13617,7 +13620,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1035</v>
       </c>
@@ -13649,7 +13652,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1037</v>
       </c>
@@ -13681,7 +13684,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1038</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1039</v>
       </c>
@@ -13745,7 +13748,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1040</v>
       </c>
@@ -13777,7 +13780,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1041</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1042</v>
       </c>
@@ -13841,7 +13844,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1043</v>
       </c>
@@ -13873,7 +13876,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1044</v>
       </c>
@@ -13905,7 +13908,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1045</v>
       </c>
@@ -13937,7 +13940,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1046</v>
       </c>
@@ -13969,7 +13972,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1047</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1048</v>
       </c>
@@ -14033,7 +14036,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1049</v>
       </c>
@@ -14065,7 +14068,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1050</v>
       </c>
@@ -14097,7 +14100,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1051</v>
       </c>
@@ -14129,7 +14132,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1053</v>
       </c>
@@ -14161,7 +14164,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1054</v>
       </c>
@@ -14193,7 +14196,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1055</v>
       </c>
@@ -14225,7 +14228,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1056</v>
       </c>
@@ -14257,7 +14260,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1057</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1058</v>
       </c>
@@ -14321,7 +14324,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1059</v>
       </c>
@@ -14353,7 +14356,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1061</v>
       </c>
@@ -14385,7 +14388,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1062</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1063</v>
       </c>
@@ -14449,7 +14452,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1064</v>
       </c>
@@ -14481,7 +14484,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1065</v>
       </c>
@@ -14513,7 +14516,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1066</v>
       </c>
@@ -14545,7 +14548,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1067</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1068</v>
       </c>
@@ -14609,7 +14612,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1069</v>
       </c>
@@ -14641,7 +14644,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1070</v>
       </c>
@@ -14673,7 +14676,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1071</v>
       </c>
@@ -14705,7 +14708,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1072</v>
       </c>
@@ -14716,7 +14719,7 @@
         <v>653</v>
       </c>
       <c r="D69" t="s">
-        <v>654</v>
+        <v>1187</v>
       </c>
       <c r="E69" t="s">
         <v>655</v>
@@ -14737,7 +14740,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1073</v>
       </c>
@@ -14769,7 +14772,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1074</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1075</v>
       </c>
@@ -14833,7 +14836,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1076</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1077</v>
       </c>
@@ -14897,7 +14900,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1078</v>
       </c>
@@ -14929,7 +14932,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1079</v>
       </c>
@@ -14961,7 +14964,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1080</v>
       </c>
@@ -14993,7 +14996,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1082</v>
       </c>
@@ -15025,7 +15028,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1083</v>
       </c>
@@ -15057,7 +15060,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1084</v>
       </c>
@@ -15089,7 +15092,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1085</v>
       </c>
@@ -15121,7 +15124,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1086</v>
       </c>
@@ -15153,7 +15156,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1087</v>
       </c>
@@ -15185,7 +15188,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1088</v>
       </c>
@@ -15217,7 +15220,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1089</v>
       </c>
@@ -15249,7 +15252,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1090</v>
       </c>
@@ -15281,7 +15284,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1091</v>
       </c>
@@ -15313,7 +15316,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1092</v>
       </c>
@@ -15342,7 +15345,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1093</v>
       </c>
@@ -15371,7 +15374,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1094</v>
       </c>
@@ -15403,7 +15406,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1095</v>
       </c>
@@ -15435,7 +15438,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1096</v>
       </c>
@@ -15467,7 +15470,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1097</v>
       </c>
@@ -15499,7 +15502,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1098</v>
       </c>
@@ -15531,7 +15534,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1099</v>
       </c>
@@ -15563,7 +15566,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1100</v>
       </c>
@@ -15595,7 +15598,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1101</v>
       </c>
@@ -15627,7 +15630,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1102</v>
       </c>
@@ -15656,7 +15659,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1103</v>
       </c>
@@ -15688,7 +15691,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1104</v>
       </c>
@@ -15720,7 +15723,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1106</v>
       </c>
@@ -15752,7 +15755,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1107</v>
       </c>
@@ -15784,7 +15787,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1108</v>
       </c>
@@ -15816,7 +15819,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1112</v>
       </c>
@@ -15848,7 +15851,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1114</v>
       </c>
@@ -15880,7 +15883,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1115</v>
       </c>
@@ -15912,7 +15915,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1117</v>
       </c>
@@ -15944,7 +15947,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1118</v>
       </c>
@@ -15976,7 +15979,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1119</v>
       </c>
@@ -16008,7 +16011,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1150</v>
       </c>
@@ -16040,7 +16043,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1120</v>
       </c>
@@ -16072,7 +16075,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1121</v>
       </c>
@@ -16104,7 +16107,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -16136,7 +16139,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -16168,7 +16171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -16200,7 +16203,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>

--- a/CS335/GitHub Info sans duplicates.xlsx
+++ b/CS335/GitHub Info sans duplicates.xlsx
@@ -3805,7 +3805,7 @@
       <selection pane="topLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.87"/>
@@ -8627,7 +8627,7 @@
       <selection pane="topLeft" activeCell="C88" activeCellId="0" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.5"/>
@@ -12360,11 +12360,11 @@
   </sheetPr>
   <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J123" activeCellId="0" sqref="J123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A123" activeCellId="0" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.5"/>
@@ -12372,7 +12372,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="29.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="17.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="30.26"/>
   </cols>
   <sheetData>
@@ -16237,6 +16237,9 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
       <c r="B123" s="0" t="s">
         <v>928</v>
       </c>
